--- a/teaching/traditional_assets/database/data/sweden/sweden_coal_related_energy.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_coal_related_energy.xlsx
@@ -590,26 +590,23 @@
           <t>Coal &amp; Related Energy</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.0211</v>
-      </c>
       <c r="G2">
-        <v>-13</v>
+        <v>-24.02547770700637</v>
       </c>
       <c r="H2">
-        <v>-15.2020202020202</v>
+        <v>-27.07006369426752</v>
       </c>
       <c r="I2">
-        <v>-20.05050505050505</v>
+        <v>-42.1656050955414</v>
       </c>
       <c r="J2">
-        <v>-20.05050505050505</v>
+        <v>-42.1656050955414</v>
       </c>
       <c r="K2">
-        <v>-14.4</v>
+        <v>-8.4</v>
       </c>
       <c r="L2">
-        <v>-72.72727272727272</v>
+        <v>-53.50318471337579</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.13</v>
+        <v>5.3</v>
       </c>
       <c r="V2">
-        <v>0.02307692307692308</v>
+        <v>0.1009523809523809</v>
       </c>
       <c r="W2">
-        <v>-1.210084033613445</v>
+        <v>-1.031941031941032</v>
       </c>
       <c r="X2">
-        <v>0.08619343330339252</v>
+        <v>0.0589959088253032</v>
       </c>
       <c r="Y2">
-        <v>-1.296277466916838</v>
+        <v>-1.090936940766335</v>
       </c>
       <c r="Z2">
-        <v>0.01783783783783784</v>
+        <v>0.0215363511659808</v>
       </c>
       <c r="AA2">
-        <v>-0.3576576576576577</v>
+        <v>-0.9080932784636488</v>
       </c>
       <c r="AB2">
-        <v>0.08542300634647498</v>
+        <v>0.05193998712349561</v>
       </c>
       <c r="AC2">
-        <v>-0.4430806640041327</v>
+        <v>-0.9600332655871444</v>
       </c>
       <c r="AD2">
-        <v>1.28</v>
+        <v>11.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.28</v>
+        <v>11.7</v>
       </c>
       <c r="AG2">
-        <v>-0.8499999999999999</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.01367813635392178</v>
+        <v>0.1822429906542056</v>
       </c>
       <c r="AI2">
-        <v>0.1358811040339703</v>
+        <v>0.9503695881731784</v>
       </c>
       <c r="AJ2">
-        <v>-0.009294696555494805</v>
+        <v>0.1086587436332767</v>
       </c>
       <c r="AK2">
-        <v>-0.1165980795610425</v>
+        <v>0.9128512337754957</v>
       </c>
       <c r="AL2">
-        <v>0.239</v>
+        <v>0.731</v>
       </c>
       <c r="AM2">
-        <v>0.236</v>
+        <v>0.728</v>
       </c>
       <c r="AN2">
-        <v>-0.3720930232558139</v>
+        <v>-1.783536585365854</v>
       </c>
       <c r="AO2">
-        <v>-16.61087866108787</v>
+        <v>-9.056087551299591</v>
       </c>
       <c r="AP2">
-        <v>0.2470930232558139</v>
+        <v>-0.975609756097561</v>
       </c>
       <c r="AQ2">
-        <v>-16.82203389830509</v>
+        <v>-9.093406593406593</v>
       </c>
     </row>
     <row r="3">
@@ -718,26 +715,23 @@
           <t>Coal &amp; Related Energy</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.0211</v>
-      </c>
       <c r="G3">
-        <v>-13</v>
+        <v>-24.02547770700637</v>
       </c>
       <c r="H3">
-        <v>-15.2020202020202</v>
+        <v>-27.07006369426752</v>
       </c>
       <c r="I3">
-        <v>-20.05050505050505</v>
+        <v>-42.1656050955414</v>
       </c>
       <c r="J3">
-        <v>-20.05050505050505</v>
+        <v>-42.1656050955414</v>
       </c>
       <c r="K3">
-        <v>-14.4</v>
+        <v>-8.4</v>
       </c>
       <c r="L3">
-        <v>-72.72727272727272</v>
+        <v>-53.50318471337579</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.13</v>
+        <v>5.3</v>
       </c>
       <c r="V3">
-        <v>0.02307692307692308</v>
+        <v>0.1009523809523809</v>
       </c>
       <c r="W3">
-        <v>-1.210084033613445</v>
+        <v>-1.031941031941032</v>
       </c>
       <c r="X3">
-        <v>0.08619343330339252</v>
+        <v>0.0589959088253032</v>
       </c>
       <c r="Y3">
-        <v>-1.296277466916838</v>
+        <v>-1.090936940766335</v>
       </c>
       <c r="Z3">
-        <v>0.01783783783783784</v>
+        <v>0.0215363511659808</v>
       </c>
       <c r="AA3">
-        <v>-0.3576576576576577</v>
+        <v>-0.9080932784636488</v>
       </c>
       <c r="AB3">
-        <v>0.08542300634647498</v>
+        <v>0.05193998712349561</v>
       </c>
       <c r="AC3">
-        <v>-0.4430806640041327</v>
+        <v>-0.9600332655871444</v>
       </c>
       <c r="AD3">
-        <v>1.28</v>
+        <v>11.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.28</v>
+        <v>11.7</v>
       </c>
       <c r="AG3">
-        <v>-0.8499999999999999</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.01367813635392178</v>
+        <v>0.1822429906542056</v>
       </c>
       <c r="AI3">
-        <v>0.1358811040339703</v>
+        <v>0.9503695881731784</v>
       </c>
       <c r="AJ3">
-        <v>-0.009294696555494805</v>
+        <v>0.1086587436332767</v>
       </c>
       <c r="AK3">
-        <v>-0.1165980795610425</v>
+        <v>0.9128512337754957</v>
       </c>
       <c r="AL3">
-        <v>0.239</v>
+        <v>0.731</v>
       </c>
       <c r="AM3">
-        <v>0.236</v>
+        <v>0.728</v>
       </c>
       <c r="AN3">
-        <v>-0.3720930232558139</v>
+        <v>-1.783536585365854</v>
       </c>
       <c r="AO3">
-        <v>-16.61087866108787</v>
+        <v>-9.056087551299591</v>
       </c>
       <c r="AP3">
-        <v>0.2470930232558139</v>
+        <v>-0.975609756097561</v>
       </c>
       <c r="AQ3">
-        <v>-16.82203389830509</v>
+        <v>-9.093406593406593</v>
       </c>
     </row>
   </sheetData>
